--- a/data/trans_orig/P36B11_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B11_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD8EFA0B-122C-4118-8652-35C63F81D6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E58BF7D5-7AC2-49E6-BC58-5D62D4A62BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8D80C11-553F-463A-99DA-D08D277372A0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9E76E51-4656-4080-9291-DA2B6079DE9B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="173">
   <si>
     <t>Población según el número de veces que consumen repostería comercial a la semana en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>43,43%</t>
   </si>
   <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
   </si>
   <si>
     <t>45,03%</t>
   </si>
   <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
   </si>
   <si>
     <t>Uno o dos a la semana</t>
@@ -104,55 +104,58 @@
     <t>27,2%</t>
   </si>
   <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
   </si>
   <si>
     <t>30,49%</t>
   </si>
   <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>Tres o más a la semana</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
     <t>25,17%</t>
   </si>
   <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>Tres o más a la semana</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,79 +167,82 @@
     <t>43,18%</t>
   </si>
   <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
   </si>
   <si>
     <t>47,88%</t>
   </si>
   <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
   </si>
   <si>
     <t>45,62%</t>
   </si>
   <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
   </si>
   <si>
     <t>35,01%</t>
   </si>
   <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
   </si>
   <si>
     <t>36,63%</t>
   </si>
   <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
   </si>
   <si>
     <t>35,85%</t>
   </si>
   <si>
-    <t>33,15%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -245,319 +251,307 @@
     <t>46,17%</t>
   </si>
   <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
   </si>
   <si>
     <t>47,48%</t>
   </si>
   <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
   </si>
   <si>
     <t>46,83%</t>
   </si>
   <si>
-    <t>44,32%</t>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
   </si>
   <si>
     <t>51,26%</t>
   </si>
   <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>36,23%</t>
   </si>
   <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
   <si>
     <t>16,76%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -972,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818C3BB7-D372-4C78-962B-784ECE75F0ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A19754-C93B-4327-8796-B39D322AA6FE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1228,13 +1222,13 @@
         <v>57729</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1249,13 +1243,13 @@
         <v>99383</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>241</v>
@@ -1264,13 +1258,13 @@
         <v>129977</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>356</v>
@@ -1279,18 +1273,18 @@
         <v>229360</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1302,13 +1296,13 @@
         <v>237327</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -1317,13 +1311,13 @@
         <v>283303</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>803</v>
@@ -1332,13 +1326,13 @@
         <v>520631</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1353,13 +1347,13 @@
         <v>192429</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>335</v>
@@ -1368,13 +1362,13 @@
         <v>216734</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>541</v>
@@ -1383,13 +1377,13 @@
         <v>409162</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1404,13 +1398,13 @@
         <v>119907</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>143</v>
@@ -1419,13 +1413,13 @@
         <v>91632</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>261</v>
@@ -1434,13 +1428,13 @@
         <v>211539</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1455,13 +1449,13 @@
         <v>549663</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>994</v>
@@ -1470,13 +1464,13 @@
         <v>591669</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>1605</v>
@@ -1485,18 +1479,18 @@
         <v>1141332</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1508,13 +1502,13 @@
         <v>479870</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>761</v>
@@ -1523,13 +1517,13 @@
         <v>502438</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1219</v>
@@ -1538,13 +1532,13 @@
         <v>982308</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1559,13 +1553,13 @@
         <v>380827</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>540</v>
@@ -1574,13 +1568,13 @@
         <v>404410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>881</v>
@@ -1589,13 +1583,13 @@
         <v>785237</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,13 +1604,13 @@
         <v>178551</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>213</v>
@@ -1625,13 +1619,13 @@
         <v>151460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>378</v>
@@ -1640,13 +1634,13 @@
         <v>330011</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,13 +1655,13 @@
         <v>1039248</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>1514</v>
@@ -1676,13 +1670,13 @@
         <v>1058308</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>2478</v>
@@ -1691,18 +1685,18 @@
         <v>2097556</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1714,13 +1708,13 @@
         <v>343829</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>520</v>
@@ -1729,7 +1723,7 @@
         <v>465828</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>100</v>
@@ -1867,13 +1861,13 @@
         <v>728772</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>1046</v>
@@ -1882,13 +1876,13 @@
         <v>873587</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1722</v>
@@ -1897,13 +1891,13 @@
         <v>1602359</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,7 +1965,7 @@
         <v>353689</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>133</v>
@@ -1986,13 +1980,13 @@
         <v>405776</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>872</v>
@@ -2001,13 +1995,13 @@
         <v>759465</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,13 +2016,13 @@
         <v>164520</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>208</v>
@@ -2037,13 +2031,13 @@
         <v>154346</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>376</v>
@@ -2052,13 +2046,13 @@
         <v>318866</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,13 +2067,13 @@
         <v>965403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>1559</v>
@@ -2088,13 +2082,13 @@
         <v>1148364</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>2565</v>
@@ -2103,13 +2097,13 @@
         <v>2113767</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2120,13 @@
         <v>1551381</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>2746</v>
@@ -2141,13 +2135,13 @@
         <v>1898339</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>4369</v>
@@ -2156,13 +2150,13 @@
         <v>3449720</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2171,13 @@
         <v>1246750</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>1846</v>
@@ -2192,13 +2186,13 @@
         <v>1356389</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>3027</v>
@@ -2207,13 +2201,13 @@
         <v>2603139</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2222,13 @@
         <v>584338</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>762</v>
@@ -2243,13 +2237,13 @@
         <v>547178</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>1330</v>
@@ -2258,13 +2252,13 @@
         <v>1131516</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2273,13 @@
         <v>3382469</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>5354</v>
@@ -2294,13 +2288,13 @@
         <v>3801906</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
         <v>8726</v>
@@ -2309,18 +2303,18 @@
         <v>7184375</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
